--- a/Översikt GOTLANDS LÄN.xlsx
+++ b/Översikt GOTLANDS LÄN.xlsx
@@ -575,7 +575,7 @@
         <v>45328</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         <v>45357</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45687</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         <v>45012</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45722</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>44985</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45842.29344907407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44342</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>45570</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>45831</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         <v>45743</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>45265</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>45827</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45905</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>45922</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44932</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>45894</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44929</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44930</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45299</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>45743</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>45712</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>44924</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>45523</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>45798</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>45701.43809027778</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>45337</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>45402.78372685185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>45418</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>45265</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>45267</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>44733</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>45309</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>44944</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44841</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>44797.53318287037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44839</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>44949</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>44509</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>45477</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>45748</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44393.84688657407</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>45371</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>45336</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>45953.44509259259</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>45183</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44930</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45576</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>45393</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>45671</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>45418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>45518</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>45446</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>45166</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>45637</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44943</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>44968</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>45441</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>44574</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>44462.57368055556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>44741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>45975.84065972222</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>44841</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>45096</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>45524.36521990741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>45425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>45691.29891203704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>45720</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44342</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>44939</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>44968</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>45411</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>45960.43130787037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>44929</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         <v>45233</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>45981.56349537037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>45233</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8426,7 +8426,7 @@
         <v>44517</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45751.41064814815</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>45512</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45854.39438657407</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>45953.47115740741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>45166</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>44942</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>46057.41193287037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45567</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44881</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44361</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>45628.3166550926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>45894.48462962963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>45673</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>44964</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>45439</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>45183</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>45335</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>45953.48998842593</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>45980.54174768519</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44939</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>45233</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>44928</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>46057.40902777778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44974</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44841</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44434</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44375</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>44269</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44375</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44833</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44550</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>45692.26797453704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>44647.79203703703</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>44857</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>45830</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>45621</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>45939.68228009259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>45439</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>45419.85546296297</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>46034.35891203704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>45040</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44468</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>45378.6434837963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44362</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44349.60091435185</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44293</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>44252</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>44496</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>44698</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>45477</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>45622.63053240741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44603</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>45733</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>45617.40662037037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>45439</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>46008</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>46010.37629629629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>45467</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>45183</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>45477</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>45784.40533564815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44442</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44238</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>44277</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>45448.66368055555</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>44725</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44434</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>45197</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45807.43337962963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44300</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>45891</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45338.35376157407</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44924</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>45467.69356481481</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>45097</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>44385</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>45917</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>44516</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44934</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>45265</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45775.47728009259</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>45363</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>45524.36229166666</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>45939.84466435185</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>45730</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>45734</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>45673</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>44277</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44434</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         <v>44929</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>45526</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>45595.54996527778</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>45072</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44839</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
         <v>46010</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>45305.37987268518</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>45705.77181712963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -16976,7 +16976,7 @@
         <v>44917</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>45720</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45379.28155092592</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>44511</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>45531</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>45159</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>45403.6684837963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>45212</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>44986</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44508</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -17840,7 +17840,7 @@
         <v>45782</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>45366.32818287037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44312</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44302</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44390</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44370</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -18247,7 +18247,7 @@
         <v>44459</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44299</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>44298</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>44244</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44263</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44839.38159722222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44342</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44674.62</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44725</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44375</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44263</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>44312</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>44417.82444444444</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>44713.64682870371</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>44301</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>44246</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>44266</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>44283</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44428</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44725.4384375</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>44839</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>44310.72780092592</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44375</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44496.58627314815</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44447</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44628</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>44771.49383101852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>44487</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>44489</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44325.49369212963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>44538.63775462963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44713.6452199074</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44841</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44876</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44363</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44515</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>44335</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44678</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44652</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44482.37388888889</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44647.78866898148</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44647.79513888889</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44321</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44483</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>45039</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44929.87122685185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>45265</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>45301</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44839.51599537037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>45097</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44508.34518518519</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>45086.44261574074</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>45264</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>45623.80864583333</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>45575</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>45575</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>44881.50380787037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -21578,7 +21578,7 @@
         <v>44968.30340277778</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>45322</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>45597.49274305555</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -21749,7 +21749,7 @@
         <v>44467.49048611111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>45667.62246527777</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
         <v>45222.80952546297</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         <v>44496.64855324074</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>45327.45173611111</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44698.49854166667</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44959.39582175926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>44368</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>45521.87988425926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>45742</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
         <v>45653.54340277778</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>45183.45642361111</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>44354</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -22490,7 +22490,7 @@
         <v>45638</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>45693.29331018519</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>45335.32702546296</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44966.66425925926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>45103</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>45103.43731481482</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>45691</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
         <v>45161</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44699</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>45852.65532407408</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>45212.38138888889</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>45212.38909722222</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>45524.69703703704</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>45804.39543981481</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>45852.65206018519</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>45207</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -23407,7 +23407,7 @@
         <v>45807.44377314814</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         <v>45807.42773148148</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>45807.44640046296</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -23578,7 +23578,7 @@
         <v>45461</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         <v>45810.39737268518</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -23692,7 +23692,7 @@
         <v>45443.60075231481</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>45418.43575231481</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>45891.58502314815</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>45812</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>45891.52694444444</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>45812</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>45891.53418981482</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>45891</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>45891</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>45895.5162037037</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>45475</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>45895.51821759259</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44819</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>45337</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44974.61608796296</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>45706</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>45894.4880324074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>45700</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44712</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>45896.32517361111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>44896</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -24894,7 +24894,7 @@
         <v>45901.58854166666</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>45709</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -25008,7 +25008,7 @@
         <v>45771</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -25065,7 +25065,7 @@
         <v>45889</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -25122,7 +25122,7 @@
         <v>45901.39974537037</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -25179,7 +25179,7 @@
         <v>45281.60122685185</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -25236,7 +25236,7 @@
         <v>45905</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -25293,7 +25293,7 @@
         <v>45751</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -25350,7 +25350,7 @@
         <v>45823</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>45822</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>45058.82172453704</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>45719</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45260</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45301.63371527778</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45301</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>45290</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>45914.3881712963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>45826.61488425926</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>45499.42527777778</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>45000.43310185185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44609</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>45915.38119212963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>45916.53699074074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>45916.52405092592</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>45301</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44516</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>45203.86256944444</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>45632.44927083333</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44821</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>45097</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>45635.84113425926</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>45730</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>45079</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44760</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>45349.83138888889</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44624.57945601852</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44349.55087962963</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>45806</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>45102</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>45928.31511574074</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>45734</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>45931.49753472222</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>45750</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>45838.42111111111</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>45837</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>45837</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>45722.42766203704</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>45856.49324074074</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>45931</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>45840</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>45840</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>45183.46704861111</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>45939.66730324074</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>45173.60959490741</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>45939.83730324074</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>45939.87613425926</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>45944.66049768519</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>45085</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>45246</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>45944.68453703704</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>44847</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>44896</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>45397.87030092593</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>45747.451875</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>45946.67896990741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>45852.54356481481</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -28666,7 +28666,7 @@
         <v>45949.49872685185</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -28723,7 +28723,7 @@
         <v>45852.614375</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>45349.83787037037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -28837,7 +28837,7 @@
         <v>45854.38502314815</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45826.68806712963</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45514</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45856</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>44936.72997685185</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -29122,7 +29122,7 @@
         <v>44944</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>44955.73359953704</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>45205</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>45541</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45673.48710648148</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>45830</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -29469,7 +29469,7 @@
         <v>45744</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -29526,7 +29526,7 @@
         <v>45743</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -29583,7 +29583,7 @@
         <v>45571</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -29640,7 +29640,7 @@
         <v>45758</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -29697,7 +29697,7 @@
         <v>45953.48637731482</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -29759,7 +29759,7 @@
         <v>45763</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45852.63224537037</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>45954.75099537037</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>45070.39875</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>45013.69365740741</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>45278.33944444444</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>45705</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -30158,7 +30158,7 @@
         <v>45705.7687962963</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -30215,7 +30215,7 @@
         <v>45705.77465277778</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -30272,7 +30272,7 @@
         <v>45647.48824074074</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>45401.38836805556</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>44968.32108796296</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -30443,7 +30443,7 @@
         <v>44968</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -30500,7 +30500,7 @@
         <v>45673</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>45960.42224537037</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>44881</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>45264</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -30733,7 +30733,7 @@
         <v>44510</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -30790,7 +30790,7 @@
         <v>45960.41155092593</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -30852,7 +30852,7 @@
         <v>45830</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -30909,7 +30909,7 @@
         <v>45779</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>44882</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>45698.29880787037</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>45669.86035879629</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>45670.36319444444</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44897.4777662037</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44931</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>45756.6687037037</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>45764.49172453704</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         <v>45774.95546296296</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -31479,7 +31479,7 @@
         <v>45335.88993055555</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>45680.42935185185</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>45132</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>45491</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>44376</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>45706.68633101852</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -31821,7 +31821,7 @@
         <v>45582.65831018519</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -31878,7 +31878,7 @@
         <v>44935</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -31935,7 +31935,7 @@
         <v>45667.63929398148</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -31992,7 +31992,7 @@
         <v>45672.64940972222</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -32049,7 +32049,7 @@
         <v>45764</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -32106,7 +32106,7 @@
         <v>45826</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -32163,7 +32163,7 @@
         <v>45733.29546296296</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -32220,7 +32220,7 @@
         <v>45392.85193287037</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -32277,7 +32277,7 @@
         <v>45975.84331018518</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -32334,7 +32334,7 @@
         <v>44998.49106481481</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -32391,7 +32391,7 @@
         <v>45978.43392361111</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -32448,7 +32448,7 @@
         <v>45314.62375</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -32505,7 +32505,7 @@
         <v>45363</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -32562,7 +32562,7 @@
         <v>45177</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>45743</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>46024.38886574074</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         <v>45302.285</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -32790,7 +32790,7 @@
         <v>45988.59846064815</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -32847,7 +32847,7 @@
         <v>45539.67310185185</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -32904,7 +32904,7 @@
         <v>46031.59909722222</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -32961,7 +32961,7 @@
         <v>45868</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -33018,7 +33018,7 @@
         <v>45112</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -33075,7 +33075,7 @@
         <v>45197.49290509259</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -33132,7 +33132,7 @@
         <v>44987</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -33189,7 +33189,7 @@
         <v>46035.3942824074</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -33246,7 +33246,7 @@
         <v>46035.52024305556</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -33303,7 +33303,7 @@
         <v>46035.4171875</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -33360,7 +33360,7 @@
         <v>44841</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -33417,7 +33417,7 @@
         <v>45029</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>46036.76203703704</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -33531,7 +33531,7 @@
         <v>46036</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -33588,7 +33588,7 @@
         <v>44741</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -33650,7 +33650,7 @@
         <v>44929</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -33707,7 +33707,7 @@
         <v>44936.47561342592</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -33764,7 +33764,7 @@
         <v>46036</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -33821,7 +33821,7 @@
         <v>45512</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -33878,7 +33878,7 @@
         <v>45695.38327546296</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -33935,7 +33935,7 @@
         <v>44280</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -33992,7 +33992,7 @@
         <v>44944.55361111111</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -34049,7 +34049,7 @@
         <v>45755.9499537037</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -34106,7 +34106,7 @@
         <v>45595.55893518519</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -34163,7 +34163,7 @@
         <v>45716</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -34220,7 +34220,7 @@
         <v>44755.8713425926</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -34277,7 +34277,7 @@
         <v>46040.59025462963</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -34334,7 +34334,7 @@
         <v>45407</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -34391,7 +34391,7 @@
         <v>46041.58902777778</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -34448,7 +34448,7 @@
         <v>44833</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -34505,7 +34505,7 @@
         <v>45667.34449074074</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -34562,7 +34562,7 @@
         <v>45179</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -34619,7 +34619,7 @@
         <v>45679.28974537037</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -34676,7 +34676,7 @@
         <v>45561</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>45747.47462962963</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -34790,7 +34790,7 @@
         <v>46048.41733796296</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>46048.40949074074</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -34904,7 +34904,7 @@
         <v>44705.38832175926</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -34961,7 +34961,7 @@
         <v>46048.40357638889</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -35018,7 +35018,7 @@
         <v>46048.39880787037</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -35075,7 +35075,7 @@
         <v>46006.34738425926</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>46006</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -35194,7 +35194,7 @@
         <v>44682.82622685185</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -35251,7 +35251,7 @@
         <v>46048.39304398148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -35308,7 +35308,7 @@
         <v>45274</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -35365,7 +35365,7 @@
         <v>45615</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -35422,7 +35422,7 @@
         <v>46009</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -35484,7 +35484,7 @@
         <v>44530</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -35541,7 +35541,7 @@
         <v>46008</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -35603,7 +35603,7 @@
         <v>44855</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -35660,7 +35660,7 @@
         <v>45076.93391203704</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -35717,7 +35717,7 @@
         <v>45929</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -35774,7 +35774,7 @@
         <v>45183.47025462963</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -35831,7 +35831,7 @@
         <v>46008</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -35893,7 +35893,7 @@
         <v>46009.56564814815</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -35950,7 +35950,7 @@
         <v>45632.51625</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -36007,7 +36007,7 @@
         <v>45281</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -36064,7 +36064,7 @@
         <v>44929.87238425926</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -36121,7 +36121,7 @@
         <v>44929.87423611111</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -36178,7 +36178,7 @@
         <v>46055.42083333333</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         <v>45301</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -36292,7 +36292,7 @@
         <v>46052.36697916667</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -36349,7 +36349,7 @@
         <v>45470.65540509259</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -36406,7 +36406,7 @@
         <v>44279.66168981481</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -36463,7 +36463,7 @@
         <v>44963.69503472222</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -36520,7 +36520,7 @@
         <v>45601.48114583334</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -36577,7 +36577,7 @@
         <v>46055.42859953704</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -36634,7 +36634,7 @@
         <v>45336</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -36691,7 +36691,7 @@
         <v>45161.56663194444</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -36748,7 +36748,7 @@
         <v>46057.58105324074</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -36810,7 +36810,7 @@
         <v>44936</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -36867,7 +36867,7 @@
         <v>45965.71788194445</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -36924,7 +36924,7 @@
         <v>46057.580625</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>46000</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>45418.55096064815</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>45078</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -37162,7 +37162,7 @@
         <v>45213</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -37219,7 +37219,7 @@
         <v>45960.43681712963</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -37281,7 +37281,7 @@
         <v>46000</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -37338,7 +37338,7 @@
         <v>45733.65049768519</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -37395,7 +37395,7 @@
         <v>45183</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>46010</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>45884</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -37566,7 +37566,7 @@
         <v>45684.46070601852</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -37623,7 +37623,7 @@
         <v>46008</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -37680,7 +37680,7 @@
         <v>46008</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -37737,7 +37737,7 @@
         <v>45960.4059375</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -37799,7 +37799,7 @@
         <v>46009</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -37856,7 +37856,7 @@
         <v>45442.64326388889</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -37913,7 +37913,7 @@
         <v>45995</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -37970,7 +37970,7 @@
         <v>45593</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -38027,7 +38027,7 @@
         <v>44988.48859953704</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -38089,7 +38089,7 @@
         <v>45147.25623842593</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         <v>45376.46956018519</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -38203,7 +38203,7 @@
         <v>45772.65802083333</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -38260,7 +38260,7 @@
         <v>44938</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -38317,7 +38317,7 @@
         <v>45282.44924768519</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -38374,7 +38374,7 @@
         <v>44609.44362268518</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -38431,7 +38431,7 @@
         <v>45582</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>44504</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -38545,7 +38545,7 @@
         <v>45705.77306712963</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -38602,7 +38602,7 @@
         <v>44955.5502662037</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -38664,7 +38664,7 @@
         <v>45187</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -38721,7 +38721,7 @@
         <v>45415</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -38778,7 +38778,7 @@
         <v>45195</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -38835,7 +38835,7 @@
         <v>44396</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -38892,7 +38892,7 @@
         <v>45197</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -38949,7 +38949,7 @@
         <v>44894</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -39011,7 +39011,7 @@
         <v>45615</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -39068,7 +39068,7 @@
         <v>45250</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -39125,7 +39125,7 @@
         <v>45072</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -39182,7 +39182,7 @@
         <v>45477</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -39239,7 +39239,7 @@
         <v>45607.64833333333</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -39296,7 +39296,7 @@
         <v>45671.3840625</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -39353,7 +39353,7 @@
         <v>45491.3716087963</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -39410,7 +39410,7 @@
         <v>44944</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -39467,7 +39467,7 @@
         <v>44915</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -39524,7 +39524,7 @@
         <v>44930</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -39581,7 +39581,7 @@
         <v>44988.49543981482</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -39643,7 +39643,7 @@
         <v>44437</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -39700,7 +39700,7 @@
         <v>45709</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -39757,7 +39757,7 @@
         <v>45215.38775462963</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -39814,7 +39814,7 @@
         <v>45602.4187037037</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -39871,7 +39871,7 @@
         <v>45576</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -39928,7 +39928,7 @@
         <v>45163</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -39985,7 +39985,7 @@
         <v>44944.54896990741</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -40042,7 +40042,7 @@
         <v>45072.55239583334</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -40099,7 +40099,7 @@
         <v>45687</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -40156,7 +40156,7 @@
         <v>44938.39715277778</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -40213,7 +40213,7 @@
         <v>45180</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -40270,7 +40270,7 @@
         <v>45764</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -40327,7 +40327,7 @@
         <v>45370</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -40384,7 +40384,7 @@
         <v>45575</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -40441,7 +40441,7 @@
         <v>44699</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -40503,7 +40503,7 @@
         <v>45329</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -40560,7 +40560,7 @@
         <v>45715</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -40617,7 +40617,7 @@
         <v>44959</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -40674,7 +40674,7 @@
         <v>45632.49292824074</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -40731,7 +40731,7 @@
         <v>45373</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -40788,7 +40788,7 @@
         <v>45695.37482638889</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -40845,7 +40845,7 @@
         <v>45695.39273148148</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -40902,7 +40902,7 @@
         <v>45695.40634259259</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -40959,7 +40959,7 @@
         <v>44909</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -41016,7 +41016,7 @@
         <v>45071</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -41073,7 +41073,7 @@
         <v>44733</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -41130,7 +41130,7 @@
         <v>45716</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -41187,7 +41187,7 @@
         <v>45378</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -41244,7 +41244,7 @@
         <v>45378</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -41301,7 +41301,7 @@
         <v>44909</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -41358,7 +41358,7 @@
         <v>45509</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -41415,7 +41415,7 @@
         <v>45056</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -41472,7 +41472,7 @@
         <v>45743</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -41529,7 +41529,7 @@
         <v>45730</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         <v>45686.47157407407</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -41643,7 +41643,7 @@
         <v>45394</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -41700,7 +41700,7 @@
         <v>45595.47627314815</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -41757,7 +41757,7 @@
         <v>45595</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -41814,7 +41814,7 @@
         <v>45097</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -41871,7 +41871,7 @@
         <v>45236</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -41928,7 +41928,7 @@
         <v>45284.54009259259</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -41985,7 +41985,7 @@
         <v>45520.64298611111</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -42042,7 +42042,7 @@
         <v>45761</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -42099,7 +42099,7 @@
         <v>45585</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -42156,7 +42156,7 @@
         <v>44335</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -42213,7 +42213,7 @@
         <v>44818</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -42270,7 +42270,7 @@
         <v>44818</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -42327,7 +42327,7 @@
         <v>44443</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -42389,7 +42389,7 @@
         <v>45190.69520833333</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -42446,7 +42446,7 @@
         <v>45418.42966435185</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -42503,7 +42503,7 @@
         <v>45652.75685185185</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -42560,7 +42560,7 @@
         <v>45728.64472222222</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -42617,7 +42617,7 @@
         <v>45401.81480324074</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -42674,7 +42674,7 @@
         <v>45440</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -42731,7 +42731,7 @@
         <v>45415</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -42788,7 +42788,7 @@
         <v>45665</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -42845,7 +42845,7 @@
         <v>45737</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -42907,7 +42907,7 @@
         <v>45776</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -42964,7 +42964,7 @@
         <v>45776</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -43021,7 +43021,7 @@
         <v>45782</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -43078,7 +43078,7 @@
         <v>45783</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -43135,7 +43135,7 @@
         <v>45441.38293981482</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -43192,7 +43192,7 @@
         <v>45368</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -43249,7 +43249,7 @@
         <v>45240</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -43306,7 +43306,7 @@
         <v>45103</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         <v>45791</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -43420,7 +43420,7 @@
         <v>45793</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -43477,7 +43477,7 @@
         <v>45792</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -43534,7 +43534,7 @@
         <v>45793</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -43591,7 +43591,7 @@
         <v>45743</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -43648,7 +43648,7 @@
         <v>45700</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>

--- a/Översikt GOTLANDS LÄN.xlsx
+++ b/Översikt GOTLANDS LÄN.xlsx
@@ -575,7 +575,7 @@
         <v>45328</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         <v>45357</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45687</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         <v>45012</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45722</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>44985</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45842.29344907407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44342</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>45570</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>45831</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         <v>45743</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>45265</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>45827</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45905</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>45922</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44932</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>45894</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44929</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44930</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45299</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>45743</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>45712</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>44924</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>45523</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>45798</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>45701.43809027778</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>45337</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>45402.78372685185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>45418</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>45265</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>45267</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>44733</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>45309</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>44944</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44841</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>44797.53318287037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44839</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>44949</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>44509</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>45477</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>45748</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44393.84688657407</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>45371</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>45336</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>45953.44509259259</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>45183</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44930</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45576</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>45393</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>45671</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>45418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>45518</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>45446</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>45166</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>45637</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44943</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>44968</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>45441</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>44574</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>44462.57368055556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>44741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>45975.84065972222</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>44841</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>45096</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>45524.36521990741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>45425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>45691.29891203704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>45720</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44342</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>44939</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>44968</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>45411</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>45960.43130787037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>44929</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         <v>45233</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>45981.56349537037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>45233</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8426,7 +8426,7 @@
         <v>44517</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45751.41064814815</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>45512</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45854.39438657407</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>45953.47115740741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>45166</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>44942</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>46057.41193287037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45567</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44881</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44361</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>45628.3166550926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>45894.48462962963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>45673</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>44964</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>45439</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>45183</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>45335</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>45953.48998842593</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>45980.54174768519</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44939</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>45233</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>44928</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>46057.40902777778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44974</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44841</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44434</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44375</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>44269</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44375</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44833</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44550</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>45692.26797453704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>44647.79203703703</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>44857</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>45830</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>45621</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>45939.68228009259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>45439</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>45419.85546296297</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>46034.35891203704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>45040</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44468</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>45378.6434837963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44362</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44349.60091435185</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44293</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>44252</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>44496</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>44698</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>45477</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>45622.63053240741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44603</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>45733</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>45617.40662037037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>45439</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>46008</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>46010.37629629629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>45467</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>45183</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>45477</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>45784.40533564815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44442</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44238</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>44277</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>45448.66368055555</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>44725</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44434</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>45197</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45807.43337962963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44300</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>45891</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45338.35376157407</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44924</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>45467.69356481481</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>45097</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>44385</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>45917</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>44516</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44934</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>45265</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45775.47728009259</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>45363</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>45524.36229166666</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>45939.84466435185</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>45730</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>45734</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>45673</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>44277</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44434</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         <v>44929</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>45526</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>45595.54996527778</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>45072</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44839</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
         <v>46010</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>45305.37987268518</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>45705.77181712963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -16976,7 +16976,7 @@
         <v>44917</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>45720</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45379.28155092592</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>44511</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>45531</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>45159</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>45403.6684837963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>45212</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>44986</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44508</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -17840,7 +17840,7 @@
         <v>45782</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>45366.32818287037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44312</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44302</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44390</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44370</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -18247,7 +18247,7 @@
         <v>44459</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44299</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>44298</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>44244</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44263</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44839.38159722222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44342</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44674.62</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44725</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44375</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44263</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>44312</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>44417.82444444444</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>44713.64682870371</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>44301</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>44246</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>44266</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>44283</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44428</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44725.4384375</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>44839</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>44310.72780092592</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44375</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44496.58627314815</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44447</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44628</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>44771.49383101852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>44487</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>44489</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44325.49369212963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>44538.63775462963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44713.6452199074</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44841</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44876</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44363</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44515</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>44335</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44678</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44652</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44482.37388888889</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44647.78866898148</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44647.79513888889</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44321</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44483</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>45039</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44929.87122685185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>45265</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>45301</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44839.51599537037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>45097</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44508.34518518519</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>45086.44261574074</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>45264</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>45623.80864583333</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>45575</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>45575</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>44881.50380787037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -21578,7 +21578,7 @@
         <v>44968.30340277778</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>45322</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>45597.49274305555</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -21749,7 +21749,7 @@
         <v>44467.49048611111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>45667.62246527777</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
         <v>45222.80952546297</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         <v>44496.64855324074</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>45327.45173611111</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44698.49854166667</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44959.39582175926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>44368</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>45521.87988425926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>45742</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
         <v>45653.54340277778</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>45183.45642361111</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>44354</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -22490,7 +22490,7 @@
         <v>45638</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>45693.29331018519</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>45335.32702546296</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44966.66425925926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>45103</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>45103.43731481482</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>45691</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
         <v>45161</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44699</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>45852.65532407408</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>45212.38138888889</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>45212.38909722222</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>45524.69703703704</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>45804.39543981481</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>45852.65206018519</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>45207</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -23407,7 +23407,7 @@
         <v>45807.44377314814</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         <v>45807.42773148148</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>45807.44640046296</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -23578,7 +23578,7 @@
         <v>45461</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         <v>45810.39737268518</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -23692,7 +23692,7 @@
         <v>45443.60075231481</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>45418.43575231481</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>45891.58502314815</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>45812</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>45891.52694444444</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>45812</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>45891.53418981482</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>45891</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>45891</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>45895.5162037037</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>45475</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>45895.51821759259</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44819</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>45337</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44974.61608796296</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>45706</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>45894.4880324074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>45700</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44712</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>45896.32517361111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>44896</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -24894,7 +24894,7 @@
         <v>45901.58854166666</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>45709</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -25008,7 +25008,7 @@
         <v>45771</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -25065,7 +25065,7 @@
         <v>45889</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -25122,7 +25122,7 @@
         <v>45901.39974537037</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -25179,7 +25179,7 @@
         <v>45281.60122685185</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -25236,7 +25236,7 @@
         <v>45905</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -25293,7 +25293,7 @@
         <v>45751</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -25350,7 +25350,7 @@
         <v>45823</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>45822</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>45058.82172453704</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>45719</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45260</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45301.63371527778</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45301</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>45290</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>45914.3881712963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>45826.61488425926</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>45499.42527777778</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>45000.43310185185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44609</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>45915.38119212963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>45916.53699074074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>45916.52405092592</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>45301</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44516</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>45203.86256944444</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>45632.44927083333</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44821</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>45097</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>45635.84113425926</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>45730</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>45079</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44760</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>45349.83138888889</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44624.57945601852</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44349.55087962963</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>45806</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>45102</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>45928.31511574074</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>45734</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>45931.49753472222</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>45750</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>45838.42111111111</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>45837</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>45837</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>45722.42766203704</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>45856.49324074074</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>45931</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>45840</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>45840</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>45183.46704861111</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>45939.66730324074</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>45173.60959490741</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>45939.83730324074</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>45939.87613425926</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>45944.66049768519</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>45085</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>45246</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>45944.68453703704</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>44847</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>44896</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>45397.87030092593</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>45747.451875</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>45946.67896990741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>45852.54356481481</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -28666,7 +28666,7 @@
         <v>45949.49872685185</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -28723,7 +28723,7 @@
         <v>45852.614375</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>45349.83787037037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -28837,7 +28837,7 @@
         <v>45854.38502314815</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45826.68806712963</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45514</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45856</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>44936.72997685185</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -29122,7 +29122,7 @@
         <v>44944</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>44955.73359953704</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>45205</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>45541</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45673.48710648148</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>45830</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -29469,7 +29469,7 @@
         <v>45744</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -29526,7 +29526,7 @@
         <v>45743</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -29583,7 +29583,7 @@
         <v>45571</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -29640,7 +29640,7 @@
         <v>45758</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -29697,7 +29697,7 @@
         <v>45953.48637731482</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -29759,7 +29759,7 @@
         <v>45763</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45852.63224537037</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>45954.75099537037</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>45070.39875</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>45013.69365740741</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>45278.33944444444</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>45705</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -30158,7 +30158,7 @@
         <v>45705.7687962963</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -30215,7 +30215,7 @@
         <v>45705.77465277778</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -30272,7 +30272,7 @@
         <v>45647.48824074074</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>45401.38836805556</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>44968.32108796296</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -30443,7 +30443,7 @@
         <v>44968</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -30500,7 +30500,7 @@
         <v>45673</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>45960.42224537037</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>44881</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>45264</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -30733,7 +30733,7 @@
         <v>44510</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -30790,7 +30790,7 @@
         <v>45960.41155092593</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -30852,7 +30852,7 @@
         <v>45830</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -30909,7 +30909,7 @@
         <v>45779</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>44882</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>45698.29880787037</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>45669.86035879629</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>45670.36319444444</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44897.4777662037</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44931</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>45756.6687037037</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>45764.49172453704</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         <v>45774.95546296296</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -31479,7 +31479,7 @@
         <v>45335.88993055555</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>45680.42935185185</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>45132</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>45491</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>44376</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>45706.68633101852</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -31821,7 +31821,7 @@
         <v>45582.65831018519</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -31878,7 +31878,7 @@
         <v>44935</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -31935,7 +31935,7 @@
         <v>45667.63929398148</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -31992,7 +31992,7 @@
         <v>45672.64940972222</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -32049,7 +32049,7 @@
         <v>45764</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -32106,7 +32106,7 @@
         <v>45826</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -32163,7 +32163,7 @@
         <v>45733.29546296296</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -32220,7 +32220,7 @@
         <v>45392.85193287037</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -32277,7 +32277,7 @@
         <v>45975.84331018518</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -32334,7 +32334,7 @@
         <v>44998.49106481481</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -32391,7 +32391,7 @@
         <v>45978.43392361111</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -32448,7 +32448,7 @@
         <v>45314.62375</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -32505,7 +32505,7 @@
         <v>45363</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -32562,7 +32562,7 @@
         <v>45177</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>45743</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>46024.38886574074</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         <v>45302.285</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -32790,7 +32790,7 @@
         <v>45988.59846064815</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -32847,7 +32847,7 @@
         <v>45539.67310185185</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -32904,7 +32904,7 @@
         <v>46031.59909722222</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -32961,7 +32961,7 @@
         <v>45868</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -33018,7 +33018,7 @@
         <v>45112</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -33075,7 +33075,7 @@
         <v>45197.49290509259</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -33132,7 +33132,7 @@
         <v>44987</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -33189,7 +33189,7 @@
         <v>46035.3942824074</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -33246,7 +33246,7 @@
         <v>46035.52024305556</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -33303,7 +33303,7 @@
         <v>46035.4171875</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -33360,7 +33360,7 @@
         <v>44841</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -33417,7 +33417,7 @@
         <v>45029</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>46036.76203703704</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -33531,7 +33531,7 @@
         <v>46036</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -33588,7 +33588,7 @@
         <v>44741</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -33650,7 +33650,7 @@
         <v>44929</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -33707,7 +33707,7 @@
         <v>44936.47561342592</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -33764,7 +33764,7 @@
         <v>46036</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -33821,7 +33821,7 @@
         <v>45512</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -33878,7 +33878,7 @@
         <v>45695.38327546296</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -33935,7 +33935,7 @@
         <v>44280</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -33992,7 +33992,7 @@
         <v>44944.55361111111</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -34049,7 +34049,7 @@
         <v>45755.9499537037</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -34106,7 +34106,7 @@
         <v>45595.55893518519</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -34163,7 +34163,7 @@
         <v>45716</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -34220,7 +34220,7 @@
         <v>44755.8713425926</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -34277,7 +34277,7 @@
         <v>46040.59025462963</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -34334,7 +34334,7 @@
         <v>45407</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -34391,7 +34391,7 @@
         <v>46041.58902777778</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -34448,7 +34448,7 @@
         <v>44833</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -34505,7 +34505,7 @@
         <v>45667.34449074074</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -34562,7 +34562,7 @@
         <v>45179</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -34619,7 +34619,7 @@
         <v>45679.28974537037</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -34676,7 +34676,7 @@
         <v>45561</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>45747.47462962963</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -34790,7 +34790,7 @@
         <v>46048.41733796296</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>46048.40949074074</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -34904,7 +34904,7 @@
         <v>44705.38832175926</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -34961,7 +34961,7 @@
         <v>46048.40357638889</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -35018,7 +35018,7 @@
         <v>46048.39880787037</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -35075,7 +35075,7 @@
         <v>46006.34738425926</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>46006</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -35194,7 +35194,7 @@
         <v>44682.82622685185</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -35251,7 +35251,7 @@
         <v>46048.39304398148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -35308,7 +35308,7 @@
         <v>45274</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -35365,7 +35365,7 @@
         <v>45615</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -35422,7 +35422,7 @@
         <v>46009</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -35484,7 +35484,7 @@
         <v>44530</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -35541,7 +35541,7 @@
         <v>46008</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -35603,7 +35603,7 @@
         <v>44855</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -35660,7 +35660,7 @@
         <v>45076.93391203704</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -35717,7 +35717,7 @@
         <v>45929</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -35774,7 +35774,7 @@
         <v>45183.47025462963</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -35831,7 +35831,7 @@
         <v>46008</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -35893,7 +35893,7 @@
         <v>46009.56564814815</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -35950,7 +35950,7 @@
         <v>45632.51625</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -36007,7 +36007,7 @@
         <v>45281</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -36064,7 +36064,7 @@
         <v>44929.87238425926</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -36121,7 +36121,7 @@
         <v>44929.87423611111</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -36178,7 +36178,7 @@
         <v>46055.42083333333</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         <v>45301</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -36292,7 +36292,7 @@
         <v>46052.36697916667</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -36349,7 +36349,7 @@
         <v>45470.65540509259</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -36406,7 +36406,7 @@
         <v>44279.66168981481</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -36463,7 +36463,7 @@
         <v>44963.69503472222</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -36520,7 +36520,7 @@
         <v>45601.48114583334</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -36577,7 +36577,7 @@
         <v>46055.42859953704</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -36634,7 +36634,7 @@
         <v>45336</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -36691,7 +36691,7 @@
         <v>45161.56663194444</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -36748,7 +36748,7 @@
         <v>46057.58105324074</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -36810,7 +36810,7 @@
         <v>44936</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -36867,7 +36867,7 @@
         <v>45965.71788194445</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -36924,7 +36924,7 @@
         <v>46057.580625</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>46000</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>45418.55096064815</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>45078</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -37162,7 +37162,7 @@
         <v>45213</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -37219,7 +37219,7 @@
         <v>45960.43681712963</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -37281,7 +37281,7 @@
         <v>46000</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -37338,7 +37338,7 @@
         <v>45733.65049768519</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -37395,7 +37395,7 @@
         <v>45183</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>46010</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>45884</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -37566,7 +37566,7 @@
         <v>45684.46070601852</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -37623,7 +37623,7 @@
         <v>46008</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -37680,7 +37680,7 @@
         <v>46008</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -37737,7 +37737,7 @@
         <v>45960.4059375</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -37799,7 +37799,7 @@
         <v>46009</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -37856,7 +37856,7 @@
         <v>45442.64326388889</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -37913,7 +37913,7 @@
         <v>45995</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -37970,7 +37970,7 @@
         <v>45593</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -38027,7 +38027,7 @@
         <v>44988.48859953704</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -38089,7 +38089,7 @@
         <v>45147.25623842593</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         <v>45376.46956018519</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -38203,7 +38203,7 @@
         <v>45772.65802083333</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -38260,7 +38260,7 @@
         <v>44938</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -38317,7 +38317,7 @@
         <v>45282.44924768519</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -38374,7 +38374,7 @@
         <v>44609.44362268518</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -38431,7 +38431,7 @@
         <v>45582</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>44504</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -38545,7 +38545,7 @@
         <v>45705.77306712963</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -38602,7 +38602,7 @@
         <v>44955.5502662037</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -38664,7 +38664,7 @@
         <v>45187</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -38721,7 +38721,7 @@
         <v>45415</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -38778,7 +38778,7 @@
         <v>45195</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -38835,7 +38835,7 @@
         <v>44396</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -38892,7 +38892,7 @@
         <v>45197</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -38949,7 +38949,7 @@
         <v>44894</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -39011,7 +39011,7 @@
         <v>45615</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -39068,7 +39068,7 @@
         <v>45250</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -39125,7 +39125,7 @@
         <v>45072</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -39182,7 +39182,7 @@
         <v>45477</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -39239,7 +39239,7 @@
         <v>45607.64833333333</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -39296,7 +39296,7 @@
         <v>45671.3840625</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -39353,7 +39353,7 @@
         <v>45491.3716087963</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -39410,7 +39410,7 @@
         <v>44944</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -39467,7 +39467,7 @@
         <v>44915</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -39524,7 +39524,7 @@
         <v>44930</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -39581,7 +39581,7 @@
         <v>44988.49543981482</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -39643,7 +39643,7 @@
         <v>44437</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -39700,7 +39700,7 @@
         <v>45709</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -39757,7 +39757,7 @@
         <v>45215.38775462963</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -39814,7 +39814,7 @@
         <v>45602.4187037037</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -39871,7 +39871,7 @@
         <v>45576</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -39928,7 +39928,7 @@
         <v>45163</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -39985,7 +39985,7 @@
         <v>44944.54896990741</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -40042,7 +40042,7 @@
         <v>45072.55239583334</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -40099,7 +40099,7 @@
         <v>45687</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -40156,7 +40156,7 @@
         <v>44938.39715277778</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -40213,7 +40213,7 @@
         <v>45180</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -40270,7 +40270,7 @@
         <v>45764</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -40327,7 +40327,7 @@
         <v>45370</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -40384,7 +40384,7 @@
         <v>45575</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -40441,7 +40441,7 @@
         <v>44699</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -40503,7 +40503,7 @@
         <v>45329</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -40560,7 +40560,7 @@
         <v>45715</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -40617,7 +40617,7 @@
         <v>44959</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -40674,7 +40674,7 @@
         <v>45632.49292824074</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -40731,7 +40731,7 @@
         <v>45373</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -40788,7 +40788,7 @@
         <v>45695.37482638889</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -40845,7 +40845,7 @@
         <v>45695.39273148148</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -40902,7 +40902,7 @@
         <v>45695.40634259259</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -40959,7 +40959,7 @@
         <v>44909</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -41016,7 +41016,7 @@
         <v>45071</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -41073,7 +41073,7 @@
         <v>44733</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -41130,7 +41130,7 @@
         <v>45716</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -41187,7 +41187,7 @@
         <v>45378</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -41244,7 +41244,7 @@
         <v>45378</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -41301,7 +41301,7 @@
         <v>44909</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -41358,7 +41358,7 @@
         <v>45509</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -41415,7 +41415,7 @@
         <v>45056</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -41472,7 +41472,7 @@
         <v>45743</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -41529,7 +41529,7 @@
         <v>45730</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         <v>45686.47157407407</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -41643,7 +41643,7 @@
         <v>45394</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -41700,7 +41700,7 @@
         <v>45595.47627314815</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -41757,7 +41757,7 @@
         <v>45595</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -41814,7 +41814,7 @@
         <v>45097</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -41871,7 +41871,7 @@
         <v>45236</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -41928,7 +41928,7 @@
         <v>45284.54009259259</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -41985,7 +41985,7 @@
         <v>45520.64298611111</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -42042,7 +42042,7 @@
         <v>45761</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -42099,7 +42099,7 @@
         <v>45585</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -42156,7 +42156,7 @@
         <v>44335</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -42213,7 +42213,7 @@
         <v>44818</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -42270,7 +42270,7 @@
         <v>44818</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -42327,7 +42327,7 @@
         <v>44443</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -42389,7 +42389,7 @@
         <v>45190.69520833333</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -42446,7 +42446,7 @@
         <v>45418.42966435185</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -42503,7 +42503,7 @@
         <v>45652.75685185185</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -42560,7 +42560,7 @@
         <v>45728.64472222222</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -42617,7 +42617,7 @@
         <v>45401.81480324074</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -42674,7 +42674,7 @@
         <v>45440</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -42731,7 +42731,7 @@
         <v>45415</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -42788,7 +42788,7 @@
         <v>45665</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -42845,7 +42845,7 @@
         <v>45737</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -42907,7 +42907,7 @@
         <v>45776</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -42964,7 +42964,7 @@
         <v>45776</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -43021,7 +43021,7 @@
         <v>45782</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -43078,7 +43078,7 @@
         <v>45783</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -43135,7 +43135,7 @@
         <v>45441.38293981482</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -43192,7 +43192,7 @@
         <v>45368</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -43249,7 +43249,7 @@
         <v>45240</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -43306,7 +43306,7 @@
         <v>45103</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         <v>45791</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -43420,7 +43420,7 @@
         <v>45793</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -43477,7 +43477,7 @@
         <v>45792</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -43534,7 +43534,7 @@
         <v>45793</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -43591,7 +43591,7 @@
         <v>45743</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -43648,7 +43648,7 @@
         <v>45700</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
